--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_395__Reeval_LHS_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_395__Reeval_LHS_Modell_1.3.xlsx
@@ -5873,7 +5873,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>70.52488708496094</c:v>
+                  <c:v>70.52487945556641</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>64.81066131591797</c:v>
@@ -5885,16 +5885,16 @@
                   <c:v>65.30201721191406</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61.13968658447266</c:v>
+                  <c:v>61.13969421386719</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65.99864959716797</c:v>
+                  <c:v>65.99864196777344</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>68.42484283447266</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70.97586059570312</c:v>
+                  <c:v>70.97585296630859</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>61.25691223144531</c:v>
@@ -5903,7 +5903,7 @@
                   <c:v>61.93115234375</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>74.44835662841797</c:v>
+                  <c:v>74.4483642578125</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>68.474853515625</c:v>
@@ -5912,22 +5912,22 @@
                   <c:v>65.62091064453125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>75.23418426513672</c:v>
+                  <c:v>75.23419189453125</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>61.71997833251953</c:v>
+                  <c:v>61.71998596191406</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>70.05457305908203</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>68.82576751708984</c:v>
+                  <c:v>68.82577514648438</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>64.03949737548828</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>63.86322021484375</c:v>
+                  <c:v>63.86321258544922</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>75.82175445556641</c:v>
@@ -5942,7 +5942,7 @@
                   <c:v>71.1556396484375</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>65.64569091796875</c:v>
+                  <c:v>65.64568328857422</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>70.84913635253906</c:v>
@@ -5954,10 +5954,10 @@
                   <c:v>75.89418792724609</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>66.55496978759766</c:v>
+                  <c:v>66.55496215820312</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>65.63984680175781</c:v>
+                  <c:v>65.63985443115234</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>63.57802581787109</c:v>
@@ -5966,10 +5966,10 @@
                   <c:v>64.70195007324219</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>67.81059265136719</c:v>
+                  <c:v>67.81058502197266</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>72.94950103759766</c:v>
+                  <c:v>72.94949340820312</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>69.52769470214844</c:v>
@@ -5978,31 +5978,31 @@
                   <c:v>66.57205200195312</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>69.32883453369141</c:v>
+                  <c:v>69.32884216308594</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>73.04038238525391</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>64.88905334472656</c:v>
+                  <c:v>64.88904571533203</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>71.02123260498047</c:v>
+                  <c:v>71.021240234375</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>69.74811553955078</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>69.30364990234375</c:v>
+                  <c:v>69.30365753173828</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>54.71185302734375</c:v>
+                  <c:v>54.71184539794922</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>59.63688659667969</c:v>
+                  <c:v>59.63687896728516</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>67.45445251464844</c:v>
+                  <c:v>67.45444488525391</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>74.1773681640625</c:v>
@@ -6011,13 +6011,13 @@
                   <c:v>66.85899353027344</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>61.33443450927734</c:v>
+                  <c:v>61.33442687988281</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>68.11518096923828</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>71.20047760009766</c:v>
+                  <c:v>71.20046997070312</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>65.0421142578125</c:v>
@@ -6029,13 +6029,13 @@
                   <c:v>68.02337646484375</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>65.04787445068359</c:v>
+                  <c:v>65.04786682128906</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>77.64266204833984</c:v>
+                  <c:v>77.64266967773438</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>75.82477569580078</c:v>
+                  <c:v>75.82478332519531</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>70.59638214111328</c:v>
@@ -6050,31 +6050,31 @@
                   <c:v>63.90766143798828</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>68.52281188964844</c:v>
+                  <c:v>68.52280426025391</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>73.16104125976562</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>66.03114318847656</c:v>
+                  <c:v>66.03113555908203</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>70.05177307128906</c:v>
+                  <c:v>70.05178070068359</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>64.18138885498047</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>72.31065368652344</c:v>
+                  <c:v>72.31064605712891</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>74.57303619384766</c:v>
+                  <c:v>74.57302856445312</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>65.587646484375</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>66.10444641113281</c:v>
+                  <c:v>66.10443878173828</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>57.61779022216797</c:v>
@@ -6086,7 +6086,7 @@
                   <c:v>65.01792907714844</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>68.07291412353516</c:v>
+                  <c:v>68.07292175292969</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>69.41841125488281</c:v>
@@ -6110,7 +6110,7 @@
                   <c:v>76.68651580810547</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>67.29893493652344</c:v>
+                  <c:v>67.29892730712891</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>68.76077270507812</c:v>
@@ -6119,7 +6119,7 @@
                   <c:v>63.41637420654297</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>69.91501617431641</c:v>
+                  <c:v>69.91502380371094</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>73.09752655029297</c:v>
@@ -6143,7 +6143,7 @@
                   <c:v>64.76117706298828</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>63.30239105224609</c:v>
+                  <c:v>63.30239868164062</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>56.12542724609375</c:v>
@@ -6155,13 +6155,13 @@
                   <c:v>73.91910552978516</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>68.03353881835938</c:v>
+                  <c:v>68.03353118896484</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>70.95250701904297</c:v>
+                  <c:v>70.9525146484375</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>69.27410888671875</c:v>
+                  <c:v>69.27411651611328</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>67.8414306640625</c:v>
@@ -6859,7 +6859,7 @@
         <v>73.39830000000001</v>
       </c>
       <c r="F2">
-        <v>70.52488708496094</v>
+        <v>70.52487945556641</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6987,7 +6987,7 @@
         <v>71.60080000000001</v>
       </c>
       <c r="F6">
-        <v>61.13968658447266</v>
+        <v>61.13969421386719</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>87.6867</v>
       </c>
       <c r="F7">
-        <v>65.99864959716797</v>
+        <v>65.99864196777344</v>
       </c>
       <c r="G7">
         <v>99</v>
@@ -7071,7 +7071,7 @@
         <v>73.1687</v>
       </c>
       <c r="F9">
-        <v>70.97586059570312</v>
+        <v>70.97585296630859</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7131,7 +7131,7 @@
         <v>71.7625</v>
       </c>
       <c r="F12">
-        <v>74.44835662841797</v>
+        <v>74.4483642578125</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>51.3815</v>
       </c>
       <c r="F15">
-        <v>75.23418426513672</v>
+        <v>75.23419189453125</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>70.16200000000001</v>
       </c>
       <c r="F16">
-        <v>61.71997833251953</v>
+        <v>61.71998596191406</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>87.605</v>
       </c>
       <c r="F18">
-        <v>68.82576751708984</v>
+        <v>68.82577514648438</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>49.1802</v>
       </c>
       <c r="F20">
-        <v>63.86322021484375</v>
+        <v>63.86321258544922</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>54.0954</v>
       </c>
       <c r="F25">
-        <v>65.64569091796875</v>
+        <v>65.64568328857422</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>75.6429</v>
       </c>
       <c r="F29">
-        <v>66.55496978759766</v>
+        <v>66.55496215820312</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>47.6665</v>
       </c>
       <c r="F30">
-        <v>65.63984680175781</v>
+        <v>65.63985443115234</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>55.7118</v>
       </c>
       <c r="F33">
-        <v>67.81059265136719</v>
+        <v>67.81058502197266</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>86.2996</v>
       </c>
       <c r="F34">
-        <v>72.94950103759766</v>
+        <v>72.94949340820312</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>90.173</v>
       </c>
       <c r="F37">
-        <v>69.32883453369141</v>
+        <v>69.32884216308594</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>84.6387</v>
       </c>
       <c r="F39">
-        <v>64.88905334472656</v>
+        <v>64.88904571533203</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>90.7071</v>
       </c>
       <c r="F40">
-        <v>71.02123260498047</v>
+        <v>71.021240234375</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>66.3913</v>
       </c>
       <c r="F42">
-        <v>69.30364990234375</v>
+        <v>69.30365753173828</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>79.9358</v>
       </c>
       <c r="F43">
-        <v>54.71185302734375</v>
+        <v>54.71184539794922</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>78.8982</v>
       </c>
       <c r="F44">
-        <v>59.63688659667969</v>
+        <v>59.63687896728516</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>88.4863</v>
       </c>
       <c r="F45">
-        <v>67.45445251464844</v>
+        <v>67.45444488525391</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>65.1785</v>
       </c>
       <c r="F48">
-        <v>61.33443450927734</v>
+        <v>61.33442687988281</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>70.9816</v>
       </c>
       <c r="F50">
-        <v>71.20047760009766</v>
+        <v>71.20046997070312</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>44.0149</v>
       </c>
       <c r="F54">
-        <v>65.04787445068359</v>
+        <v>65.04786682128906</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>52.6674</v>
       </c>
       <c r="F55">
-        <v>77.64266204833984</v>
+        <v>77.64266967773438</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>50.2989</v>
       </c>
       <c r="F56">
-        <v>75.82477569580078</v>
+        <v>75.82478332519531</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>43.5825</v>
       </c>
       <c r="F61">
-        <v>68.52281188964844</v>
+        <v>68.52280426025391</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>43.8297</v>
       </c>
       <c r="F63">
-        <v>66.03114318847656</v>
+        <v>66.03113555908203</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>41.32</v>
       </c>
       <c r="F64">
-        <v>70.05177307128906</v>
+        <v>70.05178070068359</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>66.16630000000001</v>
       </c>
       <c r="F66">
-        <v>72.31065368652344</v>
+        <v>72.31064605712891</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>91.9449</v>
       </c>
       <c r="F67">
-        <v>74.57303619384766</v>
+        <v>74.57302856445312</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>69.7713</v>
       </c>
       <c r="F69">
-        <v>66.10444641113281</v>
+        <v>66.10443878173828</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>83.1452</v>
       </c>
       <c r="F73">
-        <v>68.07291412353516</v>
+        <v>68.07292175292969</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>87.142</v>
       </c>
       <c r="F81">
-        <v>67.29893493652344</v>
+        <v>67.29892730712891</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>77.9639</v>
       </c>
       <c r="F84">
-        <v>69.91501617431641</v>
+        <v>69.91502380371094</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>78.43470000000001</v>
       </c>
       <c r="F92">
-        <v>63.30239105224609</v>
+        <v>63.30239868164062</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>65.7688</v>
       </c>
       <c r="F96">
-        <v>68.03353881835938</v>
+        <v>68.03353118896484</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>81.25369999999999</v>
       </c>
       <c r="F97">
-        <v>70.95250701904297</v>
+        <v>70.9525146484375</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>69.08</v>
       </c>
       <c r="F98">
-        <v>69.27410888671875</v>
+        <v>69.27411651611328</v>
       </c>
     </row>
     <row r="99" spans="1:6">
